--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_34_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_34_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_24</t>
+          <t>model_34_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9695231441425808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7903605058258271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9843600678764333</v>
+        <v>0.9184864214456478</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6702919322125755</v>
+        <v>0.9943879470005693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9803533011623221</v>
+        <v>0.9937292750148934</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.20379887545158</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0466360404054</v>
+        <v>1.401860262843806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3885723234661194</v>
+        <v>0.03336271885117374</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1101535517321277</v>
+        <v>0.0557565855490153</v>
       </c>
       <c r="K2" t="n">
-        <v>0.249362927126689</v>
+        <v>0.04455963359550532</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.6958931169381739</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.4514408881033928</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00415061463017</v>
+        <v>1.010600645515624</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.470659661321422</v>
       </c>
       <c r="P2" t="n">
-        <v>191.0565602922864</v>
+        <v>189.1812433522214</v>
       </c>
       <c r="Q2" t="n">
-        <v>304.4120120050291</v>
+        <v>302.536695064964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_22</t>
+          <t>model_34_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9715427976788904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7886645393141141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9843600678764333</v>
+        <v>0.695454881747896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6702919322125755</v>
+        <v>0.9892728796201899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9803533011623221</v>
+        <v>0.9837303946532162</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1902934429546281</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0466360404054</v>
+        <v>1.413201198716838</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3885723234661194</v>
+        <v>0.1246473696522544</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1101535517321277</v>
+        <v>0.1065755446736056</v>
       </c>
       <c r="K3" t="n">
-        <v>0.249362927126689</v>
+        <v>0.11561145716293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.231335634107901</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.4362263666430861</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00415061463017</v>
+        <v>1.009898157329082</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.4547974261841488</v>
       </c>
       <c r="P3" t="n">
-        <v>191.0565602922864</v>
+        <v>189.318375923268</v>
       </c>
       <c r="Q3" t="n">
-        <v>304.4120120050291</v>
+        <v>302.6738276360106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_23</t>
+          <t>model_34_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9716349754706014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7854169121330079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9843600678764333</v>
+        <v>0.4064954128227164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6702919322125755</v>
+        <v>0.9831204042952855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9803533011623221</v>
+        <v>0.9711076369459103</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1896770496370171</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0466360404054</v>
+        <v>1.434918096630843</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3885723234661194</v>
+        <v>0.2429156838657827</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1101535517321277</v>
+        <v>0.1677013068191234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.249362927126689</v>
+        <v>0.2053084953424531</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.662935994778046</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.4355192873306727</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00415061463017</v>
+        <v>1.009866095488486</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.45406024504155</v>
       </c>
       <c r="P4" t="n">
-        <v>191.0565602922864</v>
+        <v>189.3248647835382</v>
       </c>
       <c r="Q4" t="n">
-        <v>304.4120120050291</v>
+        <v>302.6803164962809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_21</t>
+          <t>model_34_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9880669853612888</v>
+        <v>0.9706243139573354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8434820739151229</v>
+        <v>0.7814681421062121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9843600813226063</v>
+        <v>0.0972873368452567</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6702912355397466</v>
+        <v>0.9767107339570746</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9803533043283774</v>
+        <v>0.957721942042318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07979612383554208</v>
+        <v>0.1964353478298952</v>
       </c>
       <c r="H5" t="n">
-        <v>1.046636092428355</v>
+        <v>1.461323539982441</v>
       </c>
       <c r="I5" t="n">
-        <v>0.388571989397489</v>
+        <v>0.3694715569890535</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1101537844864762</v>
+        <v>0.231382339872391</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2493628869419827</v>
+        <v>0.3004269484307223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2666822932122333</v>
+        <v>2.009512018074824</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2824820770164757</v>
+        <v>0.4432102749597477</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004150613787378</v>
+        <v>1.010217629927883</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2945079238535794</v>
+        <v>0.462078653936534</v>
       </c>
       <c r="P5" t="n">
-        <v>191.0565606983911</v>
+        <v>189.2548438409774</v>
       </c>
       <c r="Q5" t="n">
-        <v>304.4120124111337</v>
+        <v>302.6102955537201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_18</t>
+          <t>model_34_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9880670201868024</v>
+        <v>0.9689634781305946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8434820696796785</v>
+        <v>0.7772462461196257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9843601225712822</v>
+        <v>-0.2109672994908407</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6702925246623834</v>
+        <v>0.9703892774515707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9803533662857586</v>
+        <v>0.9444253728888764</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07979589095717231</v>
+        <v>0.2075413646507567</v>
       </c>
       <c r="H6" t="n">
-        <v>1.046636120750791</v>
+        <v>1.489555377884787</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3885709645788565</v>
+        <v>0.4956371964940673</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1101533537980857</v>
+        <v>0.2941869553097846</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2493621005567449</v>
+        <v>0.394912075901926</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2666816648275928</v>
+        <v>2.291970966295806</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2824816648159174</v>
+        <v>0.4555670802974647</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004150601674156</v>
+        <v>1.010795311954576</v>
       </c>
       <c r="O6" t="n">
-        <v>0.29450749410479</v>
+        <v>0.474961514059591</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0565665352338</v>
+        <v>189.144849222928</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4120182479764</v>
+        <v>302.5003009356707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_19</t>
+          <t>model_34_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9880670175242303</v>
+        <v>0.9669118530207532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8434820582512639</v>
+        <v>0.7729700326109823</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9843601077810051</v>
+        <v>-0.5089763204232183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6702932914145425</v>
+        <v>0.9643080240886924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9803533542023181</v>
+        <v>0.9315917610554674</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07979590876180384</v>
+        <v>0.221260591207131</v>
       </c>
       <c r="H7" t="n">
-        <v>1.046636197172651</v>
+        <v>1.518150437307239</v>
       </c>
       <c r="I7" t="n">
-        <v>0.388571332041599</v>
+        <v>0.6176094047667174</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1101530976306398</v>
+        <v>0.3546051166149176</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2493622539240932</v>
+        <v>0.4861074388562669</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2666805766405799</v>
+        <v>2.526252102828705</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2824816963305832</v>
+        <v>0.470383451247098</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004150602600268</v>
+        <v>1.011508920688434</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2945075269611004</v>
+        <v>0.4904086485946661</v>
       </c>
       <c r="P7" t="n">
-        <v>191.0565660889795</v>
+        <v>189.0168282527542</v>
       </c>
       <c r="Q7" t="n">
-        <v>304.4120178017221</v>
+        <v>302.3722799654968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_17</t>
+          <t>model_34_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9880670326155935</v>
+        <v>0.9646317200591542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8434820570525758</v>
+        <v>0.7687590363937142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9843601621640213</v>
+        <v>-0.79267560638443</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6702911352296621</v>
+        <v>0.9585354849797607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9803533821304198</v>
+        <v>0.9193861120082099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07979580784578864</v>
+        <v>0.2365078508203903</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046636205188284</v>
+        <v>1.546309388401965</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3885699809017862</v>
+        <v>0.7337247769987381</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1101538179994932</v>
+        <v>0.4119561556544336</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2493618994506397</v>
+        <v>0.572840512086695</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2666827377674047</v>
+        <v>2.723639399574167</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2824815177065371</v>
+        <v>0.4863207283474459</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004150597351098</v>
+        <v>1.012302010414207</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2945073407326589</v>
+        <v>0.5070244085758876</v>
       </c>
       <c r="P8" t="n">
-        <v>191.0565686183342</v>
+        <v>188.8835477514865</v>
       </c>
       <c r="Q8" t="n">
-        <v>304.4120203310768</v>
+        <v>302.2389994642291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_20</t>
+          <t>model_34_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9880670216608667</v>
+        <v>0.9622328408508473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8434820532022758</v>
+        <v>0.7646835655414059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9843601138965815</v>
+        <v>-1.060311840803255</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6702933541060512</v>
+        <v>0.9531030643475904</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9803533610129388</v>
+        <v>0.9078808037577579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07979588110009744</v>
+        <v>0.2525491671321616</v>
       </c>
       <c r="H9" t="n">
-        <v>1.046636230935258</v>
+        <v>1.573562080757169</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3885711801008033</v>
+        <v>0.8432656976853243</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1101530766857706</v>
+        <v>0.4659280667797512</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2493621674812607</v>
+        <v>0.6545969790440435</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2666805310108608</v>
+        <v>2.893392754497898</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2824816473686343</v>
+        <v>0.5025427017997194</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004150601161438</v>
+        <v>1.013136403182314</v>
       </c>
       <c r="O9" t="n">
-        <v>0.29450747591474</v>
+        <v>0.5239369850221387</v>
       </c>
       <c r="P9" t="n">
-        <v>191.056566782291</v>
+        <v>188.7522986558139</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4120184950336</v>
+        <v>302.1077503685566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_16</t>
+          <t>model_34_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9880670666273861</v>
+        <v>0.9597929746653144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8434820464882882</v>
+        <v>0.7607857396723103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.984360205641877</v>
+        <v>-1.311209143499942</v>
       </c>
       <c r="E10" t="n">
-        <v>0.670292156920506</v>
+        <v>0.9480217933445534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9803534381303914</v>
+        <v>0.8971030733743615</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07979558040877509</v>
+        <v>0.2688645635493708</v>
       </c>
       <c r="H10" t="n">
-        <v>1.046636275831724</v>
+        <v>1.599626860291648</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3885689006994369</v>
+        <v>0.9459555356097626</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1101534766585125</v>
+        <v>0.5164112538428995</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2493611886789747</v>
+        <v>0.7311832937071689</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2666826669093247</v>
+        <v>3.040454005409496</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2824811151365257</v>
+        <v>0.5185215169589116</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004150585520909</v>
+        <v>1.013985052290325</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2945069210244087</v>
+        <v>0.540596051423365</v>
       </c>
       <c r="P10" t="n">
-        <v>191.0565743188176</v>
+        <v>188.6270950147973</v>
       </c>
       <c r="Q10" t="n">
-        <v>304.4120260315602</v>
+        <v>301.9825467275399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_14</t>
+          <t>model_34_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9880671297305269</v>
+        <v>0.9573681236667876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8434819899972837</v>
+        <v>0.7570912371273197</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9843602982496522</v>
+        <v>-1.545276856075838</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6702931649582602</v>
+        <v>0.9432917136265506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9803535374163496</v>
+        <v>0.8870554837704856</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07979515843778202</v>
+        <v>0.285079553341932</v>
       </c>
       <c r="H11" t="n">
-        <v>1.046636653587331</v>
+        <v>1.624332015821621</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3885665998698632</v>
+        <v>1.041757185166835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1101531398789497</v>
+        <v>0.5634053029862772</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2493599285060901</v>
+        <v>0.8025812440765563</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2666882849477768</v>
+        <v>3.168400281710384</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2824803682342935</v>
+        <v>0.5339284159341324</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004150563571991</v>
+        <v>1.014828478724596</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2945061423250021</v>
+        <v>0.5566588539846387</v>
       </c>
       <c r="P11" t="n">
-        <v>191.0565848951454</v>
+        <v>188.5099740062624</v>
       </c>
       <c r="Q11" t="n">
-        <v>304.412036607888</v>
+        <v>301.865425719005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_15</t>
+          <t>model_34_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.988067100388937</v>
+        <v>0.9549988982736932</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8434819862534222</v>
+        <v>0.7536139206556856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9843602679903025</v>
+        <v>-1.76275542855216</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6702917443047002</v>
+        <v>0.9389059422430727</v>
       </c>
       <c r="F12" t="n">
-        <v>0.980353493722386</v>
+        <v>0.8777263699019675</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07979535464512882</v>
+        <v>0.3009225744548342</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04663667862255</v>
+        <v>1.647584847079009</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3885673516599432</v>
+        <v>1.130769060223261</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1101536145110582</v>
+        <v>0.6069785973521924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2493604830855007</v>
+        <v>0.8688737216990375</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2666880777842284</v>
+        <v>3.28037479908608</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2824807155278548</v>
+        <v>0.548564102411773</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004150573777761</v>
+        <v>1.015652557122194</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2945065044035693</v>
+        <v>0.57191761193568</v>
       </c>
       <c r="P12" t="n">
-        <v>191.0565799773757</v>
+        <v>188.4018045500936</v>
       </c>
       <c r="Q12" t="n">
-        <v>304.4120316901183</v>
+        <v>301.7572562628362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_13</t>
+          <t>model_34_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9880671703549331</v>
+        <v>0.9527140280207361</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8434819764490862</v>
+        <v>0.7503600772499978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9843603704565814</v>
+        <v>-1.964111300826124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6702928775780994</v>
+        <v>0.9348534015094486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9803536058452927</v>
+        <v>0.8690944952577304</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07979488678219088</v>
+        <v>0.3162015123572179</v>
       </c>
       <c r="H13" t="n">
-        <v>1.046636744184191</v>
+        <v>1.669343312915414</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3885648058969725</v>
+        <v>1.213182070114978</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1101532358909934</v>
+        <v>0.6472411953939602</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2493590599814736</v>
+        <v>0.9302116327544694</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2666930078719742</v>
+        <v>3.378844874332939</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2824798873941132</v>
+        <v>0.5623179815346633</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004150549441762</v>
+        <v>1.016447294601483</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2945056410144599</v>
+        <v>0.5862570221672865</v>
       </c>
       <c r="P13" t="n">
-        <v>191.0565917039809</v>
+        <v>188.3027511426096</v>
       </c>
       <c r="Q13" t="n">
-        <v>304.4120434167235</v>
+        <v>301.6582028553523</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9880673606050085</v>
+        <v>0.9505331370355473</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8434817157942402</v>
+        <v>0.7473301419131315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9843606754975659</v>
+        <v>-2.149963915362539</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6702940002461109</v>
+        <v>0.9311198182886895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9803539222546019</v>
+        <v>0.8611320721679037</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07979361457906045</v>
+        <v>0.330785140417255</v>
       </c>
       <c r="H14" t="n">
-        <v>1.046638487184345</v>
+        <v>1.689604504464608</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3885572271886271</v>
+        <v>1.289249746648153</v>
       </c>
       <c r="J14" t="n">
-        <v>0.110152860814127</v>
+        <v>0.684334902861395</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2493550440013771</v>
+        <v>0.9867924358127682</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2667104842972938</v>
+        <v>3.465759140856355</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2824776355378607</v>
+        <v>0.5751392356788528</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004150483267823</v>
+        <v>1.01720586537894</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2945032932920247</v>
+        <v>0.5996241036440492</v>
       </c>
       <c r="P14" t="n">
-        <v>191.0566235910685</v>
+        <v>188.2125724739657</v>
       </c>
       <c r="Q14" t="n">
-        <v>304.4120753038111</v>
+        <v>301.5680241867083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_11</t>
+          <t>model_34_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9880674249549001</v>
+        <v>0.9484689164675711</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8434816661017985</v>
+        <v>0.7445202813461083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9843607650372094</v>
+        <v>-2.321027992950573</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6702953937740139</v>
+        <v>0.9276889325206856</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9803540282306492</v>
+        <v>0.8538071822771461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07979318427103943</v>
+        <v>0.3445885928601736</v>
       </c>
       <c r="H15" t="n">
-        <v>1.046638819477932</v>
+        <v>1.708394055014511</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3885550025864342</v>
+        <v>1.359264618125051</v>
       </c>
       <c r="J15" t="n">
-        <v>0.110152395244543</v>
+        <v>0.7184212658825599</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2493536989154886</v>
+        <v>1.038842942003805</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2667146585080817</v>
+        <v>3.542706497501523</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2824768738694186</v>
+        <v>0.5870166887407662</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004150460885252</v>
+        <v>1.017923855141714</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2945024991977802</v>
+        <v>0.6120072044725255</v>
       </c>
       <c r="P15" t="n">
-        <v>191.0566343766228</v>
+        <v>188.1308081159788</v>
       </c>
       <c r="Q15" t="n">
-        <v>304.4120860893654</v>
+        <v>301.4862598287214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_10</t>
+          <t>model_34_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9880674942384109</v>
+        <v>0.9465286346196337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8434815296451913</v>
+        <v>0.7419239100499619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.984360897620299</v>
+        <v>-2.478080585398641</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6702942076285534</v>
+        <v>0.924543300056403</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9803541423830969</v>
+        <v>0.8470852216980493</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07979272097188356</v>
+        <v>0.357563266511508</v>
       </c>
       <c r="H16" t="n">
-        <v>1.046639731963893</v>
+        <v>1.725756001827031</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3885517085747474</v>
+        <v>1.423544724330903</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1101527915288567</v>
+        <v>0.7496735946859993</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2493522500518021</v>
+        <v>1.086609045789155</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2667270410208477</v>
+        <v>3.610995850521887</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2824760538025897</v>
+        <v>0.5979659409293376</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00415043678664</v>
+        <v>1.018598735784475</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2945016442190086</v>
+        <v>0.623422588994841</v>
       </c>
       <c r="P16" t="n">
-        <v>191.056645989156</v>
+        <v>188.0568859264847</v>
       </c>
       <c r="Q16" t="n">
-        <v>304.4120977018986</v>
+        <v>301.4123376392273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_9</t>
+          <t>model_34_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9880678680561353</v>
+        <v>0.9447150578745166</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8434811202594182</v>
+        <v>0.7395320653443405</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9843614999146945</v>
+        <v>-2.621974598291555</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6702962133556525</v>
+        <v>0.9216648375185135</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9803547582669856</v>
+        <v>0.8409289536659396</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07979022125103902</v>
+        <v>0.3696906625568587</v>
       </c>
       <c r="H17" t="n">
-        <v>1.046642469528443</v>
+        <v>1.741750278386955</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3885367446394305</v>
+        <v>1.482439151267545</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1101521214270747</v>
+        <v>0.7782715503289256</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2493444330332526</v>
+        <v>1.130355350798235</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2667617680082822</v>
+        <v>3.671723594027568</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2824716291081974</v>
+        <v>0.6080219260494302</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004150306763083</v>
+        <v>1.019229545087125</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2944970311562156</v>
+        <v>0.6339066782202548</v>
       </c>
       <c r="P17" t="n">
-        <v>191.0567086454978</v>
+        <v>187.9901773403396</v>
       </c>
       <c r="Q17" t="n">
-        <v>304.4121603582404</v>
+        <v>301.3456290530823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_8</t>
+          <t>model_34_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9880679810401013</v>
+        <v>0.9430283709699276</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8434810205741754</v>
+        <v>0.7373345371073654</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9843616681559219</v>
+        <v>-2.753535926025625</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6702978484450547</v>
+        <v>0.9190358281083238</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9803549444502019</v>
+        <v>0.8353022640972296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07978946572673769</v>
+        <v>0.380969545654324</v>
       </c>
       <c r="H18" t="n">
-        <v>1.046643136124121</v>
+        <v>1.756445159826293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.388532564705392</v>
+        <v>1.536285929518756</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1101515751531959</v>
+        <v>0.8043911518550116</v>
       </c>
       <c r="K18" t="n">
-        <v>0.249342069929294</v>
+        <v>1.170338482913398</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2667728377959637</v>
+        <v>3.725805740626924</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2824702917595719</v>
+        <v>0.6172273046895479</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004150267464313</v>
+        <v>1.019816218793069</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2944956368738905</v>
+        <v>0.6435039488868431</v>
       </c>
       <c r="P18" t="n">
-        <v>191.0567275833542</v>
+        <v>187.9300716794321</v>
       </c>
       <c r="Q18" t="n">
-        <v>304.4121792960969</v>
+        <v>301.2855233921748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_7</t>
+          <t>model_34_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9880680686765576</v>
+        <v>0.9414660264891712</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8434808642919178</v>
+        <v>0.7353203070757384</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9843618006984736</v>
+        <v>-2.873624797023458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6702989696806816</v>
+        <v>0.9166384210461489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9803550889309579</v>
+        <v>0.8301678599257762</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07978887970135098</v>
+        <v>0.3914169503910771</v>
       </c>
       <c r="H19" t="n">
-        <v>1.046644181184297</v>
+        <v>1.769914325322461</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3885292717008659</v>
+        <v>1.585437142253013</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1101512005548809</v>
+        <v>0.828209749429113</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2493402361278734</v>
+        <v>1.206823445841063</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2667847050658253</v>
+        <v>3.77404714431424</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2824692544355066</v>
+        <v>0.6256332395190309</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004150236982067</v>
+        <v>1.020359642960288</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2944945553887922</v>
+        <v>0.6522677417647011</v>
       </c>
       <c r="P19" t="n">
-        <v>191.0567422727003</v>
+        <v>187.875963835756</v>
       </c>
       <c r="Q19" t="n">
-        <v>304.412193985443</v>
+        <v>301.2314155484986</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_6</t>
+          <t>model_34_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9880682126700309</v>
+        <v>0.9400239389307805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.84348072491293</v>
+        <v>0.733477775448911</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9843620189650982</v>
+        <v>-2.983065847869234</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6703007684168435</v>
+        <v>0.9144550554213415</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9803553258996215</v>
+        <v>0.8254897405189165</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07978791681633235</v>
+        <v>0.4010601965342385</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04664511321223</v>
+        <v>1.782235342795132</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3885238488915597</v>
+        <v>1.630230305243766</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1101505996075696</v>
+        <v>0.8499018133238593</v>
       </c>
       <c r="K20" t="n">
-        <v>0.249337228436858</v>
+        <v>1.240066059283813</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2667959488139386</v>
+        <v>3.817120521867808</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2824675500235954</v>
+        <v>0.6332931363391194</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004150186897381</v>
+        <v>1.020861238632772</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2944927784165372</v>
+        <v>0.6602537362505932</v>
       </c>
       <c r="P20" t="n">
-        <v>191.056766408666</v>
+        <v>187.8272874937927</v>
       </c>
       <c r="Q20" t="n">
-        <v>304.4122181214086</v>
+        <v>301.1827392065354</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_5</t>
+          <t>model_34_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9880685244000096</v>
+        <v>0.9386969489029857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8434803986030766</v>
+        <v>0.7317953901452807</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9843625218404474</v>
+        <v>-3.082667043240174</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6703024194033984</v>
+        <v>0.9124693530314013</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9803558404696548</v>
+        <v>0.8212331796529869</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07978583227652968</v>
+        <v>0.4099337849603297</v>
       </c>
       <c r="H21" t="n">
-        <v>1.046647295247723</v>
+        <v>1.79348546106718</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3885113550110682</v>
+        <v>1.670996110614289</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1101500480225444</v>
+        <v>0.8696300634296257</v>
       </c>
       <c r="K21" t="n">
-        <v>0.249330697329989</v>
+        <v>1.270313087021957</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2668271435015403</v>
+        <v>3.855619952835705</v>
       </c>
       <c r="M21" t="n">
-        <v>0.282463860124671</v>
+        <v>0.6402607163963207</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004150078469562</v>
+        <v>1.02132280038157</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2944889314309764</v>
+        <v>0.6675179406157086</v>
       </c>
       <c r="P21" t="n">
-        <v>191.0568186613658</v>
+        <v>187.7835192648462</v>
       </c>
       <c r="Q21" t="n">
-        <v>304.4122703741085</v>
+        <v>301.1389709775888</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_4</t>
+          <t>model_34_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9880686882898788</v>
+        <v>0.937478894881605</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8434802230720266</v>
+        <v>0.7302615811619861</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9843627819914458</v>
+        <v>-3.17321366500716</v>
       </c>
       <c r="E22" t="n">
-        <v>0.670303608469546</v>
+        <v>0.9106651528597269</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9803561104080092</v>
+        <v>0.8173642643051606</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07978473634421916</v>
+        <v>0.418078917809926</v>
       </c>
       <c r="H22" t="n">
-        <v>1.046648469024661</v>
+        <v>1.803742048801013</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3885048915892903</v>
+        <v>1.708055966634734</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1101496507624461</v>
+        <v>0.8875550618624128</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2493272711758682</v>
+        <v>1.297805514248573</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2668431463336685</v>
+        <v>3.89006306874518</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2824619201666291</v>
+        <v>0.6465902240290414</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00415002146439</v>
+        <v>1.021746471345529</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2944869088849045</v>
+        <v>0.6741169084922414</v>
       </c>
       <c r="P22" t="n">
-        <v>191.056846133407</v>
+        <v>187.7441701313785</v>
       </c>
       <c r="Q22" t="n">
-        <v>304.4122978461497</v>
+        <v>301.0996218441211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_3</t>
+          <t>model_34_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9880688763021652</v>
+        <v>0.9363635135978058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8434800105451639</v>
+        <v>0.7288652833331234</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9843630819717484</v>
+        <v>-3.255429445820601</v>
       </c>
       <c r="E23" t="n">
-        <v>0.670304861820898</v>
+        <v>0.9090276902852248</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9803564205046023</v>
+        <v>0.8138518301874508</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07978347910519459</v>
+        <v>0.4255374775905497</v>
       </c>
       <c r="H23" t="n">
-        <v>1.046649890192771</v>
+        <v>1.813079098811978</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3884974386130081</v>
+        <v>1.74170609007496</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1101492320250342</v>
+        <v>0.9038234973400892</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2493233353190211</v>
+        <v>1.322764793707525</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2668604806471415</v>
+        <v>3.92089262393444</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2824596946560599</v>
+        <v>0.6523323367659691</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004149956068812</v>
+        <v>1.022134430052937</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2944845886297429</v>
+        <v>0.680103474856192</v>
       </c>
       <c r="P23" t="n">
-        <v>191.0568776494335</v>
+        <v>187.7088045118074</v>
       </c>
       <c r="Q23" t="n">
-        <v>304.4123293621761</v>
+        <v>301.0642562245501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_2</t>
+          <t>model_34_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9880691017785845</v>
+        <v>0.9353441630228712</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8434797654404934</v>
+        <v>0.7275956445443349</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9843634133609103</v>
+        <v>-3.330014041664314</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6703084750219328</v>
+        <v>0.9075429555411236</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9803567924006515</v>
+        <v>0.8106659340920122</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07978197134334032</v>
+        <v>0.4323538795788149</v>
       </c>
       <c r="H24" t="n">
-        <v>1.046651529208831</v>
+        <v>1.821569179238756</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3884892052872128</v>
+        <v>1.772232843358194</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1101480248755405</v>
+        <v>0.9185745589899827</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2493186150813766</v>
+        <v>1.345403701174088</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2668832848489079</v>
+        <v>3.948513612045391</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2824570256576039</v>
+        <v>0.6575362192144361</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004149877642232</v>
+        <v>1.022488986774654</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2944818060064971</v>
+        <v>0.6855288973540119</v>
       </c>
       <c r="P24" t="n">
-        <v>191.0569154461332</v>
+        <v>187.6770217207589</v>
       </c>
       <c r="Q24" t="n">
-        <v>304.4123671588758</v>
+        <v>301.0324734335015</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_1</t>
+          <t>model_34_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.988069585032345</v>
+        <v>0.9344141395276067</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8434792033641461</v>
+        <v>0.7264424762870969</v>
       </c>
       <c r="D25" t="n">
-        <v>0.984364194479689</v>
+        <v>-3.397615699719774</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6703109852926427</v>
+        <v>0.9061974760028912</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9803575899464733</v>
+        <v>0.8077784888337631</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0797787398232187</v>
+        <v>0.4385729509740129</v>
       </c>
       <c r="H25" t="n">
-        <v>1.046655287815954</v>
+        <v>1.829280420684757</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3884697984805588</v>
+        <v>1.799901547782373</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1101471862086666</v>
+        <v>0.9319420993509724</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2493084923446127</v>
+        <v>1.365921823566673</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2669380863577861</v>
+        <v>3.973268096871763</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2824513052248452</v>
+        <v>0.6622484057919754</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004149709553967</v>
+        <v>1.022812473207789</v>
       </c>
       <c r="O25" t="n">
-        <v>0.294475842043073</v>
+        <v>0.6904416914697281</v>
       </c>
       <c r="P25" t="n">
-        <v>191.0569964565549</v>
+        <v>187.648458232372</v>
       </c>
       <c r="Q25" t="n">
-        <v>304.4124481692975</v>
+        <v>301.0039099451146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_34_8_0</t>
+          <t>model_34_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.988070933776837</v>
+        <v>0.9335668824037331</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8434776719847842</v>
+        <v>0.7253962114379415</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9843663265413301</v>
+        <v>-3.458841790193583</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6703217113761275</v>
+        <v>0.904978985746576</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9803598093180863</v>
+        <v>0.8051634280121659</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07976972076259069</v>
+        <v>0.4442385632626164</v>
       </c>
       <c r="H26" t="n">
-        <v>1.046665528156798</v>
+        <v>1.836276798548666</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3884168276531227</v>
+        <v>1.82496079409521</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1101436026864314</v>
+        <v>0.9440479822112686</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2492803232864733</v>
+        <v>1.384504388153239</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2670765391840154</v>
+        <v>3.99546239667391</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2824353390824008</v>
+        <v>0.6665122378941113</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004149240425448</v>
+        <v>1.023107171337832</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2944591961888901</v>
+        <v>0.6948870437318012</v>
       </c>
       <c r="P26" t="n">
-        <v>191.0572225711937</v>
+        <v>187.6227871124017</v>
       </c>
       <c r="Q26" t="n">
-        <v>304.4126742839364</v>
+        <v>300.9782388251443</v>
       </c>
     </row>
   </sheetData>
